--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5752CB58-897F-0D46-BEE0-F1839D976C52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706E0608-26AF-D349-B14D-756D75C621F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28320" windowHeight="19280" tabRatio="372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11300" yWindow="1460" windowWidth="28320" windowHeight="19280" tabRatio="372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="4" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Datos!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="13">
   <si>
     <t>-</t>
   </si>
@@ -63,13 +66,17 @@
   <si>
     <t>Tuesday</t>
   </si>
+  <si>
+    <t>Holiday</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="166" formatCode="[$]dddd\,\ d\ mmmm\ yyyy;@" x16r2:formatCode16="[$-en-CL,1]dddd\,\ d\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -102,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,17 +132,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,4793 +496,6843 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D341"/>
+  <dimension ref="A1:F341"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:F341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>43831</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5">
+        <v>43831</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>27</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>43832</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5">
+        <v>43832</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>51</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>43833</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5">
+        <v>43833</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>68</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>43834</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5">
+        <v>43834</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>54</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>43835</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5">
+        <v>43835</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>70</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>43836</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5">
+        <v>43836</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>39</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>43837</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5">
+        <v>43837</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>59</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>43838</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5">
+        <v>43838</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>62</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>43839</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5">
+        <v>43839</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>50</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>43840</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5">
+        <v>43840</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>63</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>43841</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5">
+        <v>43841</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>52</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>43842</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5">
+        <v>43842</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>77</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>43843</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5">
+        <v>43843</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>62</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>43844</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5">
+        <v>43844</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>56</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>43845</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5">
+        <v>43845</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>63</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>43846</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5">
+        <v>43846</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>81</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>43847</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5">
+        <v>43847</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="2">
         <v>53</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>43848</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5">
+        <v>43848</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="2">
         <v>49</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>43849</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5">
+        <v>43849</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="2">
         <v>65</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>43850</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5">
+        <v>43850</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="2">
         <v>44</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>43851</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5">
+        <v>43851</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D22" s="2">
         <v>61</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>43852</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5">
+        <v>43852</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="2">
         <v>64</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>43853</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5">
+        <v>43853</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="2">
         <v>61</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>43854</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5">
+        <v>43854</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="2">
         <v>74</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>108</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>43855</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5">
+        <v>43855</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="2">
         <v>52</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>43856</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5">
+        <v>43856</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="2">
         <v>83</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>43857</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5">
+        <v>43857</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="2">
+      <c r="D28" s="2">
         <v>49</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>43858</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="5">
+        <v>43858</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="2">
+      <c r="D29" s="2">
         <v>57</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>43859</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="5">
+        <v>43859</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="2">
+      <c r="D30" s="2">
         <v>57</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>43860</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5">
+        <v>43860</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2">
+      <c r="D31" s="2">
         <v>67</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E31" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>43861</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="5">
+        <v>43861</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="2">
+      <c r="D32" s="2">
         <v>62</v>
       </c>
-      <c r="D32" s="2">
+      <c r="E32" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>43862</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="5">
+        <v>43862</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="2">
+      <c r="D33" s="2">
         <v>48</v>
       </c>
-      <c r="D33" s="2">
+      <c r="E33" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>43863</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="5">
+        <v>43863</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="2">
+      <c r="D34" s="2">
         <v>73</v>
       </c>
-      <c r="D34" s="2">
+      <c r="E34" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>43864</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="5">
+        <v>43864</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="2">
+      <c r="D35" s="2">
         <v>31</v>
       </c>
-      <c r="D35" s="2">
+      <c r="E35" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>43865</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="5">
+        <v>43865</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="2">
+      <c r="D36" s="2">
         <v>49</v>
       </c>
-      <c r="D36" s="2">
+      <c r="E36" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>43866</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="5">
+        <v>43866</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="2">
+      <c r="D37" s="2">
         <v>54</v>
       </c>
-      <c r="D37" s="2">
+      <c r="E37" s="2">
         <v>59</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>43867</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="5">
+        <v>43867</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="2">
+      <c r="D38" s="2">
         <v>58</v>
       </c>
-      <c r="D38" s="2">
+      <c r="E38" s="2">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>43868</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="5">
+        <v>43868</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="2">
+      <c r="D39" s="2">
         <v>67</v>
       </c>
-      <c r="D39" s="2">
+      <c r="E39" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>43869</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="5">
+        <v>43869</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="2">
+      <c r="D40" s="2">
         <v>46</v>
       </c>
-      <c r="D40" s="2">
+      <c r="E40" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>43870</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="5">
+        <v>43870</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="2">
+      <c r="D41" s="2">
         <v>61</v>
       </c>
-      <c r="D41" s="2">
+      <c r="E41" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>43871</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="5">
+        <v>43871</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C42" s="2">
-        <v>41</v>
       </c>
       <c r="D42" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" s="2">
+        <v>41</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>43872</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="5">
+        <v>43872</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="2">
+      <c r="D43" s="2">
         <v>44</v>
       </c>
-      <c r="D43" s="2">
+      <c r="E43" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43873</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="5">
+        <v>43873</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="2">
+      <c r="D44" s="2">
         <v>49</v>
       </c>
-      <c r="D44" s="2">
+      <c r="E44" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43874</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="5">
+        <v>43874</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="2">
+      <c r="D45" s="2">
         <v>37</v>
       </c>
-      <c r="D45" s="2">
+      <c r="E45" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43875</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="5">
+        <v>43875</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="2">
+      <c r="D46" s="2">
         <v>55</v>
       </c>
-      <c r="D46" s="2">
+      <c r="E46" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>43876</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="5">
+        <v>43876</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="2">
+      <c r="D47" s="2">
         <v>47</v>
       </c>
-      <c r="D47" s="2">
+      <c r="E47" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>43877</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="5">
+        <v>43877</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="2">
+      <c r="D48" s="2">
         <v>71</v>
       </c>
-      <c r="D48" s="2">
+      <c r="E48" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>43878</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="5">
+        <v>43878</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="2">
+      <c r="D49" s="2">
         <v>36</v>
       </c>
-      <c r="D49" s="2">
+      <c r="E49" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>43879</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="5">
+        <v>43879</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C50" s="2">
-        <v>55</v>
       </c>
       <c r="D50" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" s="2">
+        <v>55</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>43880</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="5">
+        <v>43880</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="2">
+      <c r="D51" s="2">
         <v>59</v>
       </c>
-      <c r="D51" s="2">
+      <c r="E51" s="2">
         <v>63</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>43881</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="5">
+        <v>43881</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="2">
+      <c r="D52" s="2">
         <v>55</v>
       </c>
-      <c r="D52" s="2">
+      <c r="E52" s="2">
         <v>57</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>43882</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="5">
+        <v>43882</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="2">
+      <c r="D53" s="2">
         <v>49</v>
       </c>
-      <c r="D53" s="2">
+      <c r="E53" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>43883</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="5">
+        <v>43883</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C54" s="2">
-        <v>44</v>
       </c>
       <c r="D54" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" s="2">
+        <v>44</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>43884</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="5">
+        <v>43884</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="2">
+      <c r="D55" s="2">
         <v>96</v>
       </c>
-      <c r="D55" s="2">
+      <c r="E55" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>43885</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="5">
+        <v>43885</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="2">
+      <c r="D56" s="2">
         <v>40</v>
       </c>
-      <c r="D56" s="2">
+      <c r="E56" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>43886</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="5">
+        <v>43886</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="2">
+      <c r="D57" s="2">
         <v>41</v>
       </c>
-      <c r="D57" s="2">
+      <c r="E57" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>43887</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="5">
+        <v>43887</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="2">
+      <c r="D58" s="2">
         <v>56</v>
       </c>
-      <c r="D58" s="2">
+      <c r="E58" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>43888</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="5">
+        <v>43888</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="2">
+      <c r="D59" s="2">
         <v>62</v>
       </c>
-      <c r="D59" s="2">
+      <c r="E59" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>43889</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="5">
+        <v>43889</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="2">
+      <c r="D60" s="2">
         <v>58</v>
       </c>
-      <c r="D60" s="2">
+      <c r="E60" s="2">
         <v>67</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>43890</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="5">
+        <v>43890</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="2">
+      <c r="D61" s="2">
         <v>53</v>
       </c>
-      <c r="D61" s="2">
+      <c r="E61" s="2">
         <v>57</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>43891</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="5">
+        <v>43891</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="2">
+      <c r="D62" s="2">
         <v>78</v>
       </c>
-      <c r="D62" s="2">
+      <c r="E62" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>43892</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="5">
+        <v>43892</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="2">
+      <c r="D63" s="2">
         <v>42</v>
       </c>
-      <c r="D63" s="2">
+      <c r="E63" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>43893</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="5">
+        <v>43893</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="2">
+      <c r="D64" s="2">
         <v>45</v>
       </c>
-      <c r="D64" s="2">
+      <c r="E64" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>43894</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="5">
+        <v>43894</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="2">
+      <c r="D65" s="2">
         <v>49</v>
       </c>
-      <c r="D65" s="2">
+      <c r="E65" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>43895</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="5">
+        <v>43895</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="2">
+      <c r="D66" s="2">
         <v>50</v>
       </c>
-      <c r="D66" s="2">
+      <c r="E66" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>43896</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="5">
+        <v>43896</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="2">
+      <c r="D67" s="2">
         <v>44</v>
       </c>
-      <c r="D67" s="2">
+      <c r="E67" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>43897</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="5">
+        <v>43897</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="2">
+      <c r="D68" s="2">
         <v>47</v>
       </c>
-      <c r="D68" s="2">
+      <c r="E68" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>43898</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="5">
+        <v>43898</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="2">
+      <c r="D69" s="2">
         <v>55</v>
       </c>
-      <c r="D69" s="2">
+      <c r="E69" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>43899</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="5">
+        <v>43899</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="2">
+      <c r="D70" s="2">
         <v>48</v>
       </c>
-      <c r="D70" s="2">
+      <c r="E70" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>43900</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="5">
+        <v>43900</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="2">
+      <c r="D71" s="2">
         <v>44</v>
       </c>
-      <c r="D71" s="2">
+      <c r="E71" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>43901</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="5">
+        <v>43901</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C72" s="2">
-        <v>51</v>
       </c>
       <c r="D72" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" s="2">
+        <v>51</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>43902</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="5">
+        <v>43902</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="2">
+      <c r="D73" s="2">
         <v>53</v>
       </c>
-      <c r="D73" s="2">
+      <c r="E73" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>43903</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="5">
+        <v>43903</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C74" s="2">
-        <v>61</v>
       </c>
       <c r="D74" s="2">
         <v>61</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" s="2">
+        <v>61</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>43904</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="5">
+        <v>43904</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="2">
+      <c r="D75" s="2">
         <v>61</v>
       </c>
-      <c r="D75" s="2">
+      <c r="E75" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>43905</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="5">
+        <v>43905</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="2">
+      <c r="D76" s="2">
         <v>69</v>
       </c>
-      <c r="D76" s="2">
+      <c r="E76" s="2">
         <v>53</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>43906</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="5">
+        <v>43906</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="2">
+      <c r="D77" s="2">
         <v>30</v>
       </c>
-      <c r="D77" s="2">
+      <c r="E77" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>43907</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="5">
+        <v>43907</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="2">
+      <c r="D78" s="2">
         <v>36</v>
       </c>
-      <c r="D78" s="2">
+      <c r="E78" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>43908</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="5">
+        <v>43908</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="2">
+      <c r="D79" s="2">
         <v>30</v>
       </c>
-      <c r="D79" s="2">
+      <c r="E79" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>43909</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="5">
+        <v>43909</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C80" s="2">
-        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80" s="2">
+        <v>27</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>43910</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="5">
+        <v>43910</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="2">
+      <c r="D81" s="2">
         <v>30</v>
       </c>
-      <c r="D81" s="2">
+      <c r="E81" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>43911</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="5">
+        <v>43911</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="2">
+      <c r="D82" s="2">
         <v>14</v>
       </c>
-      <c r="D82" s="2">
+      <c r="E82" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>43912</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="5">
+        <v>43912</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="2">
+      <c r="D83" s="2">
         <v>18</v>
       </c>
-      <c r="D83" s="2">
+      <c r="E83" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>43913</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="5">
+        <v>43913</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="2">
+      <c r="D84" s="2">
         <v>15</v>
       </c>
-      <c r="D84" s="2">
+      <c r="E84" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>43914</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="5">
+        <v>43914</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C85" s="2">
+      <c r="D85" s="2">
         <v>21</v>
       </c>
-      <c r="D85" s="2">
+      <c r="E85" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>43915</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="5">
+        <v>43915</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C86" s="2">
+      <c r="D86" s="2">
         <v>17</v>
       </c>
-      <c r="D86" s="2">
+      <c r="E86" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>43916</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="5">
+        <v>43916</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="2">
+      <c r="D87" s="2">
         <v>26</v>
       </c>
-      <c r="D87" s="2">
+      <c r="E87" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>43917</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="5">
+        <v>43917</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="2">
+      <c r="D88" s="2">
         <v>9</v>
       </c>
-      <c r="D88" s="2">
+      <c r="E88" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>43918</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="5">
+        <v>43918</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C89" s="2">
-        <v>6</v>
       </c>
       <c r="D89" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89" s="2">
+        <v>6</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>43919</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="5">
+        <v>43919</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C90" s="2">
+      <c r="D90" s="2">
         <v>8</v>
       </c>
-      <c r="D90" s="2">
+      <c r="E90" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>43920</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="5">
+        <v>43920</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C91" s="2">
-        <v>8</v>
       </c>
       <c r="D91" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91" s="2">
+        <v>8</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>43921</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="5">
+        <v>43921</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C92" s="2">
-        <v>10</v>
       </c>
       <c r="D92" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92" s="2">
+        <v>10</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>43922</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="5">
+        <v>43922</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C93" s="2">
+      <c r="D93" s="2">
         <v>12</v>
       </c>
-      <c r="D93" s="2">
+      <c r="E93" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>43923</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="5">
+        <v>43923</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C94" s="2">
-        <v>12</v>
       </c>
       <c r="D94" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94" s="2">
+        <v>12</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>43924</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="5">
+        <v>43924</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="2">
+      <c r="D95" s="2">
         <v>14</v>
       </c>
-      <c r="D95" s="2">
+      <c r="E95" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>43925</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="5">
+        <v>43925</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="2">
+      <c r="D96" s="2">
         <v>13</v>
       </c>
-      <c r="D96" s="2">
+      <c r="E96" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>43926</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="5">
+        <v>43926</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="2">
-        <v>1</v>
-      </c>
       <c r="D97" s="2">
+        <v>1</v>
+      </c>
+      <c r="E97" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>43927</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="5">
+        <v>43927</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C98" s="2">
-        <v>16</v>
       </c>
       <c r="D98" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98" s="2">
+        <v>16</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>43928</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="5">
+        <v>43928</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="2">
+      <c r="D99" s="2">
         <v>15</v>
       </c>
-      <c r="D99" s="2">
+      <c r="E99" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>43929</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="5">
+        <v>43929</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="2">
+      <c r="D100" s="2">
         <v>10</v>
       </c>
-      <c r="D100" s="2">
+      <c r="E100" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>43930</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="5">
+        <v>43930</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C101" s="2">
+      <c r="D101" s="2">
         <v>5</v>
       </c>
-      <c r="D101" s="2">
+      <c r="E101" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>43931</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="5">
+        <v>43931</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D102" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D102" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="2">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>43934</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="5">
+        <v>43934</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="2">
+      <c r="D103" s="2">
         <v>13</v>
       </c>
-      <c r="D103" s="2">
+      <c r="E103" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>43935</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="5">
+        <v>43935</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C104" s="2">
+      <c r="D104" s="2">
         <v>12</v>
       </c>
-      <c r="D104" s="2">
+      <c r="E104" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>43936</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="5">
+        <v>43936</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C105" s="2">
-        <v>11</v>
       </c>
       <c r="D105" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105" s="2">
+        <v>11</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>43937</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="5">
+        <v>43937</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C106" s="2">
+      <c r="D106" s="2">
         <v>19</v>
       </c>
-      <c r="D106" s="2">
+      <c r="E106" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>43938</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="5">
+        <v>43938</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C107" s="2">
+      <c r="D107" s="2">
         <v>9</v>
       </c>
-      <c r="D107" s="2">
+      <c r="E107" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>43939</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="5">
+        <v>43939</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C108" s="2">
+      <c r="D108" s="2">
         <v>28</v>
       </c>
-      <c r="D108" s="2">
+      <c r="E108" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>43940</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="5">
+        <v>43940</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C109" s="2">
+      <c r="D109" s="2">
         <v>19</v>
       </c>
-      <c r="D109" s="2">
+      <c r="E109" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>43941</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="5">
+        <v>43941</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C110" s="2">
-        <v>11</v>
       </c>
       <c r="D110" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E110" s="2">
+        <v>11</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>43942</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="5">
+        <v>43942</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C111" s="2">
+      <c r="D111" s="2">
         <v>30</v>
       </c>
-      <c r="D111" s="2">
+      <c r="E111" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>43943</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="5">
+        <v>43943</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C112" s="2">
+      <c r="D112" s="2">
         <v>16</v>
       </c>
-      <c r="D112" s="2">
+      <c r="E112" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>43944</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="5">
+        <v>43944</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C113" s="2">
+      <c r="D113" s="2">
         <v>10</v>
       </c>
-      <c r="D113" s="2">
+      <c r="E113" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>43945</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="5">
+        <v>43945</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C114" s="2">
-        <v>13</v>
       </c>
       <c r="D114" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E114" s="2">
+        <v>13</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>43946</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="5">
+        <v>43946</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C115" s="2">
+      <c r="D115" s="2">
         <v>29</v>
       </c>
-      <c r="D115" s="2">
+      <c r="E115" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>43947</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="5">
+        <v>43947</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C116" s="2">
+      <c r="D116" s="2">
         <v>15</v>
       </c>
-      <c r="D116" s="2">
+      <c r="E116" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>43948</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="5">
+        <v>43948</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C117" s="2">
+      <c r="D117" s="2">
         <v>10</v>
       </c>
-      <c r="D117" s="2">
+      <c r="E117" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>43949</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="5">
+        <v>43949</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C118" s="2">
+      <c r="D118" s="2">
         <v>23</v>
       </c>
-      <c r="D118" s="2">
+      <c r="E118" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>43950</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="5">
+        <v>43950</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C119" s="2">
+      <c r="D119" s="2">
         <v>28</v>
       </c>
-      <c r="D119" s="2">
+      <c r="E119" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>43951</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="5">
+        <v>43951</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C120" s="2">
+      <c r="D120" s="2">
         <v>23</v>
       </c>
-      <c r="D120" s="2">
+      <c r="E120" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>43952</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="5">
+        <v>43952</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C121" s="2">
-        <v>8</v>
       </c>
       <c r="D121" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E121" s="2">
+        <v>8</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>43953</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="5">
+        <v>43953</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C122" s="2">
-        <v>11</v>
       </c>
       <c r="D122" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E122" s="2">
+        <v>11</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>43954</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="5">
+        <v>43954</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C123" s="2">
+      <c r="D123" s="2">
         <v>11</v>
       </c>
-      <c r="D123" s="2">
+      <c r="E123" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>43955</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="5">
+        <v>43955</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C124" s="2">
+      <c r="D124" s="2">
         <v>17</v>
       </c>
-      <c r="D124" s="2">
+      <c r="E124" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>43956</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="5">
+        <v>43956</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C125" s="2">
+      <c r="D125" s="2">
         <v>24</v>
       </c>
-      <c r="D125" s="2">
+      <c r="E125" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>43957</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="5">
+        <v>43957</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C126" s="2">
+      <c r="D126" s="2">
         <v>19</v>
       </c>
-      <c r="D126" s="2">
+      <c r="E126" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>43958</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="5">
+        <v>43958</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C127" s="2">
+      <c r="D127" s="2">
         <v>32</v>
       </c>
-      <c r="D127" s="2">
+      <c r="E127" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>43959</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="5">
+        <v>43959</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C128" s="2">
+      <c r="D128" s="2">
         <v>30</v>
       </c>
-      <c r="D128" s="2">
+      <c r="E128" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>43960</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="5">
+        <v>43960</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C129" s="2">
+      <c r="D129" s="2">
         <v>28</v>
       </c>
-      <c r="D129" s="2">
+      <c r="E129" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>43961</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="5">
+        <v>43961</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C130" s="2">
-        <v>8</v>
       </c>
       <c r="D130" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E130" s="2">
+        <v>8</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>43962</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="5">
+        <v>43962</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C131" s="2">
-        <v>14</v>
       </c>
       <c r="D131" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E131" s="2">
+        <v>14</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>43963</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="5">
+        <v>43963</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C132" s="2">
+      <c r="D132" s="2">
         <v>15</v>
       </c>
-      <c r="D132" s="2">
+      <c r="E132" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>43964</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="5">
+        <v>43964</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C133" s="2">
-        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E133" s="2">
+        <v>27</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>43965</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="5">
+        <v>43965</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C134" s="2">
+      <c r="D134" s="2">
         <v>47</v>
       </c>
-      <c r="D134" s="2">
+      <c r="E134" s="2">
         <v>53</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>43966</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="5">
+        <v>43966</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C135" s="2">
+      <c r="D135" s="2">
         <v>65</v>
       </c>
-      <c r="D135" s="2">
+      <c r="E135" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>43968</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="5">
+        <v>43968</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D136" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D136" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E136" s="2">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>43971</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="5">
+        <v>43971</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="2">
-        <v>1</v>
-      </c>
       <c r="D137" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E137" s="2">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>43972</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="5">
+        <v>43972</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="2">
+      <c r="D138" s="2">
         <v>2</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E138" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>43973</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="5">
+        <v>43973</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C139" s="2">
+      <c r="D139" s="2">
         <v>5</v>
       </c>
-      <c r="D139" s="2">
+      <c r="E139" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>43974</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="5">
+        <v>43974</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C140" s="2">
-        <v>1</v>
-      </c>
       <c r="D140" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E140" s="2">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>43975</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="5">
+        <v>43975</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D141" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D141" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E141" s="2">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>43976</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="5">
+        <v>43976</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C142" s="2">
-        <v>2</v>
       </c>
       <c r="D142" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E142" s="2">
+        <v>2</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>43977</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="5">
+        <v>43977</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C143" s="2">
+      <c r="D143" s="2">
         <v>3</v>
       </c>
-      <c r="D143" s="2">
+      <c r="E143" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>43978</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="5">
+        <v>43978</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D144" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D144" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E144" s="2">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>43979</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="5">
+        <v>43979</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C145" s="2">
-        <v>1</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D145" s="2">
+        <v>1</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>43980</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="5">
+        <v>43980</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C146" s="2">
+      <c r="D146" s="2">
         <v>3</v>
       </c>
-      <c r="D146" s="2">
+      <c r="E146" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>43981</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="5">
+        <v>43981</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C147" s="2">
-        <v>1</v>
-      </c>
       <c r="D147" s="2">
+        <v>1</v>
+      </c>
+      <c r="E147" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>43983</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="5">
+        <v>43983</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C148" s="2">
+      <c r="D148" s="2">
         <v>3</v>
       </c>
-      <c r="D148" s="2">
+      <c r="E148" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>43984</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="5">
+        <v>43984</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C149" s="2">
+      <c r="D149" s="2">
         <v>4</v>
       </c>
-      <c r="D149" s="2">
+      <c r="E149" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>43985</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="5">
+        <v>43985</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C150" s="2">
-        <v>1</v>
-      </c>
       <c r="D150" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E150" s="2">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>43986</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="5">
+        <v>43986</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C151" s="2">
+      <c r="D151" s="2">
         <v>5</v>
       </c>
-      <c r="D151" s="2">
+      <c r="E151" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>43987</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="5">
+        <v>43987</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D152" s="2">
+      <c r="D152" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E152" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>43988</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="5">
+        <v>43988</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C153" s="2">
-        <v>2</v>
       </c>
       <c r="D153" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E153" s="2">
+        <v>2</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>43990</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="5">
+        <v>43990</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C154" s="2">
+      <c r="D154" s="2">
         <v>2</v>
       </c>
-      <c r="D154" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E154" s="2">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>43991</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="5">
+        <v>43991</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="D155" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E155" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>43992</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="5">
+        <v>43992</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C156" s="2">
-        <v>1</v>
-      </c>
       <c r="D156" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E156" s="2">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>43993</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="5">
+        <v>43993</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C157" s="2">
-        <v>3</v>
       </c>
       <c r="D157" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E157" s="2">
+        <v>3</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>43994</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="5">
+        <v>43994</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C158" s="2">
-        <v>1</v>
-      </c>
       <c r="D158" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E158" s="2">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>43995</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="5">
+        <v>43995</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C159" s="2">
-        <v>2</v>
       </c>
       <c r="D159" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E159" s="2">
+        <v>2</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>43996</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="5">
+        <v>43996</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C160" s="2">
-        <v>3</v>
       </c>
       <c r="D160" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E160" s="2">
+        <v>3</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>43997</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="5">
+        <v>43997</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C161" s="2">
+      <c r="D161" s="2">
         <v>2</v>
       </c>
-      <c r="D161" s="2">
+      <c r="E161" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>43998</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="5">
+        <v>43998</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C162" s="2">
+      <c r="D162" s="2">
         <v>2</v>
       </c>
-      <c r="D162" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E162" s="2">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>44000</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="5">
+        <v>44000</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C163" s="2">
-        <v>1</v>
-      </c>
       <c r="D163" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E163" s="2">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>44001</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="5">
+        <v>44001</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C164" s="2">
-        <v>2</v>
       </c>
       <c r="D164" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E164" s="2">
+        <v>2</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>44002</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="5">
+        <v>44002</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C165" s="2">
-        <v>1</v>
-      </c>
       <c r="D165" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E165" s="2">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>44004</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="5">
+        <v>44004</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C166" s="2">
-        <v>2</v>
       </c>
       <c r="D166" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E166" s="2">
+        <v>2</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>44005</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="5">
+        <v>44005</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C167" s="2">
+      <c r="D167" s="2">
         <v>2</v>
       </c>
-      <c r="D167" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E167" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>44006</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="5">
+        <v>44006</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C168" s="2">
-        <v>1</v>
-      </c>
       <c r="D168" s="2">
+        <v>1</v>
+      </c>
+      <c r="E168" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>44007</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="5">
+        <v>44007</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C169" s="2">
-        <v>8</v>
       </c>
       <c r="D169" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E169" s="2">
+        <v>8</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>44008</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="5">
+        <v>44008</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C170" s="2">
+      <c r="D170" s="2">
         <v>9</v>
       </c>
-      <c r="D170" s="2">
+      <c r="E170" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>44009</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="5">
+        <v>44009</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C171" s="2">
+      <c r="D171" s="2">
         <v>6</v>
       </c>
-      <c r="D171" s="2">
+      <c r="E171" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>44010</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="5">
+        <v>44010</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D172" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D172" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E172" s="2">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>44011</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="5">
+        <v>44011</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D173" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D173" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E173" s="2">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>44012</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="5">
+        <v>44012</v>
+      </c>
+      <c r="C174" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C174" s="2">
+      <c r="D174" s="2">
         <v>3</v>
       </c>
-      <c r="D174" s="2">
+      <c r="E174" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>44013</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="5">
+        <v>44013</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C175" s="2">
-        <v>1</v>
-      </c>
       <c r="D175" s="2">
+        <v>1</v>
+      </c>
+      <c r="E175" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>44014</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="5">
+        <v>44014</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="D176" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E176" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>44015</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="5">
+        <v>44015</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C177" s="2">
+      <c r="D177" s="2">
         <v>3</v>
       </c>
-      <c r="D177" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E177" s="2">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>44017</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="5">
+        <v>44017</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C178" s="2">
-        <v>1</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D178" s="2">
+        <v>1</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>44018</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="5">
+        <v>44018</v>
+      </c>
+      <c r="C179" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C179" s="2">
+      <c r="D179" s="2">
         <v>7</v>
       </c>
-      <c r="D179" s="2">
+      <c r="E179" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>44019</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="5">
+        <v>44019</v>
+      </c>
+      <c r="C180" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C180" s="2">
-        <v>1</v>
-      </c>
       <c r="D180" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E180" s="2">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>44021</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="5">
+        <v>44021</v>
+      </c>
+      <c r="C181" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C181" s="2">
-        <v>3</v>
       </c>
       <c r="D181" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E181" s="2">
+        <v>3</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>44022</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="5">
+        <v>44022</v>
+      </c>
+      <c r="C182" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C182" s="2">
-        <v>6</v>
       </c>
       <c r="D182" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E182" s="2">
+        <v>6</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>44023</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="5">
+        <v>44023</v>
+      </c>
+      <c r="C183" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C183" s="2">
-        <v>1</v>
-      </c>
       <c r="D183" s="2">
+        <v>1</v>
+      </c>
+      <c r="E183" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>44024</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="5">
+        <v>44024</v>
+      </c>
+      <c r="C184" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D184" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D184" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E184" s="2">
+        <v>1</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>44025</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="5">
+        <v>44025</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C185" s="2">
+      <c r="D185" s="2">
         <v>3</v>
       </c>
-      <c r="D185" s="2">
+      <c r="E185" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>44026</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="5">
+        <v>44026</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C186" s="2">
-        <v>10</v>
       </c>
       <c r="D186" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E186" s="2">
+        <v>10</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>44027</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="5">
+        <v>44027</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C187" s="2">
+      <c r="D187" s="2">
         <v>7</v>
       </c>
-      <c r="D187" s="2">
+      <c r="E187" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>44028</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="5">
+        <v>44028</v>
+      </c>
+      <c r="C188" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C188" s="2">
-        <v>3</v>
       </c>
       <c r="D188" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E188" s="2">
+        <v>3</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>44029</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="5">
+        <v>44029</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C189" s="2">
-        <v>2</v>
       </c>
       <c r="D189" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E189" s="2">
+        <v>2</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>44031</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="5">
+        <v>44031</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C190" s="2">
-        <v>1</v>
-      </c>
       <c r="D190" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E190" s="2">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>44033</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="5">
+        <v>44033</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C191" s="2">
-        <v>1</v>
-      </c>
       <c r="D191" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E191" s="2">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>44034</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="5">
+        <v>44034</v>
+      </c>
+      <c r="C192" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C192" s="2">
+      <c r="D192" s="2">
         <v>2</v>
       </c>
-      <c r="D192" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E192" s="2">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>44035</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="5">
+        <v>44035</v>
+      </c>
+      <c r="C193" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C193" s="2">
-        <v>1</v>
-      </c>
       <c r="D193" s="2">
+        <v>1</v>
+      </c>
+      <c r="E193" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>44036</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="5">
+        <v>44036</v>
+      </c>
+      <c r="C194" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C194" s="2">
+      <c r="D194" s="2">
         <v>9</v>
       </c>
-      <c r="D194" s="2">
+      <c r="E194" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>44037</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="5">
+        <v>44037</v>
+      </c>
+      <c r="C195" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C195" s="2">
+      <c r="D195" s="2">
         <v>4</v>
       </c>
-      <c r="D195" s="2">
+      <c r="E195" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>44038</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="5">
+        <v>44038</v>
+      </c>
+      <c r="C196" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C196" s="2">
-        <v>1</v>
-      </c>
       <c r="D196" s="2">
+        <v>1</v>
+      </c>
+      <c r="E196" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>44039</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="5">
+        <v>44039</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C197" s="2">
-        <v>3</v>
       </c>
       <c r="D197" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E197" s="2">
+        <v>3</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>44040</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="5">
+        <v>44040</v>
+      </c>
+      <c r="C198" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="D198" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E198" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>44041</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="5">
+        <v>44041</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C199" s="2">
-        <v>7</v>
       </c>
       <c r="D199" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E199" s="2">
+        <v>7</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>44042</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="5">
+        <v>44042</v>
+      </c>
+      <c r="C200" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C200" s="2">
-        <v>1</v>
-      </c>
       <c r="D200" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E200" s="2">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>44043</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="5">
+        <v>44043</v>
+      </c>
+      <c r="C201" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C201" s="2">
+      <c r="D201" s="2">
         <v>4</v>
       </c>
-      <c r="D201" s="2">
+      <c r="E201" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>44045</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="5">
+        <v>44045</v>
+      </c>
+      <c r="C202" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C202" s="2">
-        <v>1</v>
-      </c>
       <c r="D202" s="2">
+        <v>1</v>
+      </c>
+      <c r="E202" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>44046</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="5">
+        <v>44046</v>
+      </c>
+      <c r="C203" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C203" s="2">
-        <v>3</v>
       </c>
       <c r="D203" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E203" s="2">
+        <v>3</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>44047</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="5">
+        <v>44047</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C204" s="2">
+      <c r="D204" s="2">
         <v>3</v>
       </c>
-      <c r="D204" s="2">
+      <c r="E204" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>44048</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="5">
+        <v>44048</v>
+      </c>
+      <c r="C205" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C205" s="2">
+      <c r="D205" s="2">
         <v>2</v>
       </c>
-      <c r="D205" s="2">
+      <c r="E205" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>44049</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="5">
+        <v>44049</v>
+      </c>
+      <c r="C206" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C206" s="2">
+      <c r="D206" s="2">
         <v>4</v>
       </c>
-      <c r="D206" s="2">
+      <c r="E206" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>44050</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" s="5">
+        <v>44050</v>
+      </c>
+      <c r="C207" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C207" s="2">
-        <v>4</v>
       </c>
       <c r="D207" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E207" s="2">
+        <v>4</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>44051</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="5">
+        <v>44051</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C208" s="2">
+      <c r="D208" s="2">
         <v>2</v>
       </c>
-      <c r="D208" s="2">
+      <c r="E208" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>44052</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" s="5">
+        <v>44052</v>
+      </c>
+      <c r="C209" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C209" s="2">
-        <v>1</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D209" s="2">
+        <v>1</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>44053</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="5">
+        <v>44053</v>
+      </c>
+      <c r="C210" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C210" s="2">
-        <v>1</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D210" s="2">
+        <v>1</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>44054</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="5">
+        <v>44054</v>
+      </c>
+      <c r="C211" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C211" s="2">
+      <c r="D211" s="2">
         <v>6</v>
       </c>
-      <c r="D211" s="2">
+      <c r="E211" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>44055</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="5">
+        <v>44055</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C212" s="2">
-        <v>1</v>
-      </c>
       <c r="D212" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E212" s="2">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>44056</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" s="5">
+        <v>44056</v>
+      </c>
+      <c r="C213" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C213" s="2">
-        <v>1</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D213" s="2">
+        <v>1</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>44057</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B214" s="5">
+        <v>44057</v>
+      </c>
+      <c r="C214" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C214" s="2">
-        <v>1</v>
-      </c>
       <c r="D214" s="2">
+        <v>1</v>
+      </c>
+      <c r="E214" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>44058</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B215" s="5">
+        <v>44058</v>
+      </c>
+      <c r="C215" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D215" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D215" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E215" s="2">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>44060</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" s="5">
+        <v>44060</v>
+      </c>
+      <c r="C216" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C216" s="2">
-        <v>1</v>
-      </c>
       <c r="D216" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E216" s="2">
+        <v>1</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>44061</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B217" s="5">
+        <v>44061</v>
+      </c>
+      <c r="C217" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C217" s="2">
-        <v>1</v>
-      </c>
       <c r="D217" s="2">
+        <v>1</v>
+      </c>
+      <c r="E217" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>44062</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="5">
+        <v>44062</v>
+      </c>
+      <c r="C218" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D218" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D218" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E218" s="2">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>44063</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B219" s="5">
+        <v>44063</v>
+      </c>
+      <c r="C219" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C219" s="2">
+      <c r="D219" s="2">
         <v>8</v>
       </c>
-      <c r="D219" s="2">
+      <c r="E219" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>44064</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" s="5">
+        <v>44064</v>
+      </c>
+      <c r="C220" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C220" s="2">
+      <c r="D220" s="2">
         <v>4</v>
       </c>
-      <c r="D220" s="2">
+      <c r="E220" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>44065</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B221" s="5">
+        <v>44065</v>
+      </c>
+      <c r="C221" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C221" s="2">
-        <v>1</v>
-      </c>
       <c r="D221" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E221" s="2">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>44066</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" s="5">
+        <v>44066</v>
+      </c>
+      <c r="C222" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C222" s="2">
-        <v>1</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D222" s="2">
+        <v>1</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
         <v>44067</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" s="5">
+        <v>44067</v>
+      </c>
+      <c r="C223" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C223" s="2">
-        <v>1</v>
-      </c>
       <c r="D223" s="2">
+        <v>1</v>
+      </c>
+      <c r="E223" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
         <v>44068</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B224" s="5">
+        <v>44068</v>
+      </c>
+      <c r="C224" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C224" s="2">
-        <v>1</v>
-      </c>
       <c r="D224" s="2">
+        <v>1</v>
+      </c>
+      <c r="E224" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
         <v>44069</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B225" s="5">
+        <v>44069</v>
+      </c>
+      <c r="C225" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C225" s="2">
+      <c r="D225" s="2">
         <v>6</v>
       </c>
-      <c r="D225" s="2">
+      <c r="E225" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
         <v>44070</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" s="5">
+        <v>44070</v>
+      </c>
+      <c r="C226" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C226" s="2">
+      <c r="D226" s="2">
         <v>7</v>
       </c>
-      <c r="D226" s="2">
+      <c r="E226" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
         <v>44071</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" s="5">
+        <v>44071</v>
+      </c>
+      <c r="C227" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C227" s="2">
-        <v>2</v>
       </c>
       <c r="D227" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E227" s="2">
+        <v>2</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
         <v>44072</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="5">
+        <v>44072</v>
+      </c>
+      <c r="C228" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D228" s="2">
+      <c r="D228" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E228" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
         <v>44073</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" s="5">
+        <v>44073</v>
+      </c>
+      <c r="C229" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C229" s="2">
-        <v>1</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D229" s="2">
+        <v>1</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
         <v>44074</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="5">
+        <v>44074</v>
+      </c>
+      <c r="C230" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C230" s="2">
-        <v>5</v>
       </c>
       <c r="D230" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E230" s="2">
+        <v>5</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
         <v>44075</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" s="5">
+        <v>44075</v>
+      </c>
+      <c r="C231" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C231" s="2">
-        <v>1</v>
-      </c>
       <c r="D231" s="2">
+        <v>1</v>
+      </c>
+      <c r="E231" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
         <v>44077</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="5">
+        <v>44077</v>
+      </c>
+      <c r="C232" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C232" s="2">
+      <c r="D232" s="2">
         <v>4</v>
       </c>
-      <c r="D232" s="2">
+      <c r="E232" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
         <v>44078</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" s="5">
+        <v>44078</v>
+      </c>
+      <c r="C233" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C233" s="2">
-        <v>3</v>
       </c>
       <c r="D233" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E233" s="2">
+        <v>3</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
         <v>44079</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B234" s="5">
+        <v>44079</v>
+      </c>
+      <c r="C234" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C234" s="2">
-        <v>3</v>
       </c>
       <c r="D234" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E234" s="2">
+        <v>3</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
         <v>44081</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" s="5">
+        <v>44081</v>
+      </c>
+      <c r="C235" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C235" s="2">
+      <c r="D235" s="2">
         <v>54</v>
       </c>
-      <c r="D235" s="2">
+      <c r="E235" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
         <v>44082</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" s="5">
+        <v>44082</v>
+      </c>
+      <c r="C236" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C236" s="2">
+      <c r="D236" s="2">
         <v>17</v>
       </c>
-      <c r="D236" s="2">
+      <c r="E236" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
         <v>44083</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" s="5">
+        <v>44083</v>
+      </c>
+      <c r="C237" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C237" s="2">
+      <c r="D237" s="2">
         <v>50</v>
       </c>
-      <c r="D237" s="2">
+      <c r="E237" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
         <v>44084</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" s="5">
+        <v>44084</v>
+      </c>
+      <c r="C238" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C238" s="2">
+      <c r="D238" s="2">
         <v>40</v>
       </c>
-      <c r="D238" s="2">
+      <c r="E238" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
         <v>44085</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B239" s="5">
+        <v>44085</v>
+      </c>
+      <c r="C239" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C239" s="2">
-        <v>61</v>
       </c>
       <c r="D239" s="2">
         <v>61</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E239" s="2">
+        <v>61</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
         <v>44086</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B240" s="5">
+        <v>44086</v>
+      </c>
+      <c r="C240" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C240" s="2">
+      <c r="D240" s="2">
         <v>12</v>
       </c>
-      <c r="D240" s="2">
+      <c r="E240" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
         <v>44087</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B241" s="5">
+        <v>44087</v>
+      </c>
+      <c r="C241" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C241" s="2">
+      <c r="D241" s="2">
         <v>3</v>
       </c>
-      <c r="D241" s="2">
+      <c r="E241" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
         <v>44088</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B242" s="5">
+        <v>44088</v>
+      </c>
+      <c r="C242" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C242" s="2">
+      <c r="D242" s="2">
         <v>55</v>
       </c>
-      <c r="D242" s="2">
+      <c r="E242" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
         <v>44089</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B243" s="5">
+        <v>44089</v>
+      </c>
+      <c r="C243" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C243" s="2">
-        <v>28</v>
       </c>
       <c r="D243" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E243" s="2">
+        <v>28</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
         <v>44090</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B244" s="5">
+        <v>44090</v>
+      </c>
+      <c r="C244" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C244" s="2">
+      <c r="D244" s="2">
         <v>54</v>
       </c>
-      <c r="D244" s="2">
+      <c r="E244" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
         <v>44091</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B245" s="5">
+        <v>44091</v>
+      </c>
+      <c r="C245" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C245" s="2">
+      <c r="D245" s="2">
         <v>44</v>
       </c>
-      <c r="D245" s="2">
+      <c r="E245" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
         <v>44092</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" s="5">
+        <v>44092</v>
+      </c>
+      <c r="C246" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C246" s="2">
-        <v>12</v>
       </c>
       <c r="D246" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E246" s="2">
+        <v>12</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
         <v>44093</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B247" s="5">
+        <v>44093</v>
+      </c>
+      <c r="C247" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C247" s="2">
-        <v>17</v>
       </c>
       <c r="D247" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E247" s="2">
+        <v>17</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
         <v>44094</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" s="5">
+        <v>44094</v>
+      </c>
+      <c r="C248" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C248" s="2">
+      <c r="D248" s="2">
         <v>18</v>
       </c>
-      <c r="D248" s="2">
+      <c r="E248" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
         <v>44095</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B249" s="5">
+        <v>44095</v>
+      </c>
+      <c r="C249" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C249" s="2">
+      <c r="D249" s="2">
         <v>32</v>
       </c>
-      <c r="D249" s="2">
+      <c r="E249" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
         <v>44096</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B250" s="5">
+        <v>44096</v>
+      </c>
+      <c r="C250" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C250" s="2">
+      <c r="D250" s="2">
         <v>41</v>
       </c>
-      <c r="D250" s="2">
+      <c r="E250" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
         <v>44097</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" s="5">
+        <v>44097</v>
+      </c>
+      <c r="C251" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C251" s="2">
+      <c r="D251" s="2">
         <v>53</v>
       </c>
-      <c r="D251" s="2">
+      <c r="E251" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
         <v>44098</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B252" s="5">
+        <v>44098</v>
+      </c>
+      <c r="C252" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C252" s="2">
+      <c r="D252" s="2">
         <v>59</v>
       </c>
-      <c r="D252" s="2">
+      <c r="E252" s="2">
         <v>61</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
         <v>44099</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B253" s="5">
+        <v>44099</v>
+      </c>
+      <c r="C253" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C253" s="2">
+      <c r="D253" s="2">
         <v>3</v>
       </c>
-      <c r="D253" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E253" s="2">
+        <v>1</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
         <v>44100</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B254" s="5">
+        <v>44100</v>
+      </c>
+      <c r="C254" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C254" s="2">
+      <c r="D254" s="2">
         <v>31</v>
       </c>
-      <c r="D254" s="2">
+      <c r="E254" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
         <v>44101</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B255" s="5">
+        <v>44101</v>
+      </c>
+      <c r="C255" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C255" s="2">
+      <c r="D255" s="2">
         <v>48</v>
       </c>
-      <c r="D255" s="2">
+      <c r="E255" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
         <v>44102</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B256" s="5">
+        <v>44102</v>
+      </c>
+      <c r="C256" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C256" s="2">
+      <c r="D256" s="2">
         <v>44</v>
       </c>
-      <c r="D256" s="2">
+      <c r="E256" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
         <v>44103</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B257" s="5">
+        <v>44103</v>
+      </c>
+      <c r="C257" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C257" s="2">
+      <c r="D257" s="2">
         <v>34</v>
       </c>
-      <c r="D257" s="2">
+      <c r="E257" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
         <v>44104</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B258" s="5">
+        <v>44104</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C258" s="2">
+      <c r="D258" s="2">
         <v>50</v>
       </c>
-      <c r="D258" s="2">
+      <c r="E258" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
         <v>44105</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C259" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C259" s="2">
+      <c r="D259" s="2">
         <v>45</v>
       </c>
-      <c r="D259" s="2">
+      <c r="E259" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
         <v>44106</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" s="5">
+        <v>44106</v>
+      </c>
+      <c r="C260" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C260" s="2">
+      <c r="D260" s="2">
         <v>54</v>
       </c>
-      <c r="D260" s="2">
+      <c r="E260" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
         <v>44107</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B261" s="5">
+        <v>44107</v>
+      </c>
+      <c r="C261" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C261" s="2">
+      <c r="D261" s="2">
         <v>49</v>
       </c>
-      <c r="D261" s="2">
+      <c r="E261" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
         <v>44108</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B262" s="5">
+        <v>44108</v>
+      </c>
+      <c r="C262" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C262" s="2">
+      <c r="D262" s="2">
         <v>45</v>
       </c>
-      <c r="D262" s="2">
+      <c r="E262" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
         <v>44109</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B263" s="5">
+        <v>44109</v>
+      </c>
+      <c r="C263" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C263" s="2">
+      <c r="D263" s="2">
         <v>49</v>
       </c>
-      <c r="D263" s="2">
+      <c r="E263" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
         <v>44110</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B264" s="5">
+        <v>44110</v>
+      </c>
+      <c r="C264" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C264" s="2">
+      <c r="D264" s="2">
         <v>39</v>
       </c>
-      <c r="D264" s="2">
+      <c r="E264" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
         <v>44111</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B265" s="5">
+        <v>44111</v>
+      </c>
+      <c r="C265" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C265" s="2">
+      <c r="D265" s="2">
         <v>55</v>
       </c>
-      <c r="D265" s="2">
+      <c r="E265" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
         <v>44112</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" s="5">
+        <v>44112</v>
+      </c>
+      <c r="C266" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C266" s="2">
+      <c r="D266" s="2">
         <v>53</v>
       </c>
-      <c r="D266" s="2">
+      <c r="E266" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
         <v>44113</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" s="5">
+        <v>44113</v>
+      </c>
+      <c r="C267" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C267" s="2">
+      <c r="D267" s="2">
         <v>39</v>
       </c>
-      <c r="D267" s="2">
+      <c r="E267" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
         <v>44114</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B268" s="5">
+        <v>44114</v>
+      </c>
+      <c r="C268" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C268" s="2">
+      <c r="D268" s="2">
         <v>36</v>
       </c>
-      <c r="D268" s="2">
+      <c r="E268" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
         <v>44115</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" s="5">
+        <v>44115</v>
+      </c>
+      <c r="C269" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C269" s="2">
+      <c r="D269" s="2">
         <v>36</v>
       </c>
-      <c r="D269" s="2">
+      <c r="E269" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
         <v>44116</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B270" s="5">
+        <v>44116</v>
+      </c>
+      <c r="C270" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C270" s="2">
+      <c r="D270" s="2">
         <v>26</v>
       </c>
-      <c r="D270" s="2">
+      <c r="E270" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
         <v>44117</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B271" s="5">
+        <v>44117</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C271" s="2">
+      <c r="D271" s="2">
         <v>36</v>
       </c>
-      <c r="D271" s="2">
+      <c r="E271" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
         <v>44118</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B272" s="5">
+        <v>44118</v>
+      </c>
+      <c r="C272" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C272" s="2">
+      <c r="D272" s="2">
         <v>46</v>
       </c>
-      <c r="D272" s="2">
+      <c r="E272" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
         <v>44119</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B273" s="5">
+        <v>44119</v>
+      </c>
+      <c r="C273" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C273" s="2">
+      <c r="D273" s="2">
         <v>59</v>
       </c>
-      <c r="D273" s="2">
+      <c r="E273" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
         <v>44120</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B274" s="5">
+        <v>44120</v>
+      </c>
+      <c r="C274" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C274" s="2">
+      <c r="D274" s="2">
         <v>64</v>
       </c>
-      <c r="D274" s="2">
+      <c r="E274" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
         <v>44121</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B275" s="5">
+        <v>44121</v>
+      </c>
+      <c r="C275" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C275" s="2">
+      <c r="D275" s="2">
         <v>46</v>
       </c>
-      <c r="D275" s="2">
+      <c r="E275" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
         <v>44122</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B276" s="5">
+        <v>44122</v>
+      </c>
+      <c r="C276" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C276" s="2">
+      <c r="D276" s="2">
         <v>37</v>
       </c>
-      <c r="D276" s="2">
+      <c r="E276" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
         <v>44123</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="B277" s="5">
+        <v>44123</v>
+      </c>
+      <c r="C277" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C277" s="2">
-        <v>35</v>
       </c>
       <c r="D277" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E277" s="2">
+        <v>35</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
         <v>44124</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B278" s="5">
+        <v>44124</v>
+      </c>
+      <c r="C278" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C278" s="2">
+      <c r="D278" s="2">
         <v>42</v>
       </c>
-      <c r="D278" s="2">
+      <c r="E278" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
         <v>44125</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B279" s="5">
+        <v>44125</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C279" s="2">
+      <c r="D279" s="2">
         <v>47</v>
       </c>
-      <c r="D279" s="2">
+      <c r="E279" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="3">
         <v>44126</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="5">
+        <v>44126</v>
+      </c>
+      <c r="C280" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C280" s="2">
-        <v>52</v>
       </c>
       <c r="D280" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E280" s="2">
+        <v>52</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
         <v>44127</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B281" s="5">
+        <v>44127</v>
+      </c>
+      <c r="C281" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C281" s="2">
+      <c r="D281" s="2">
         <v>52</v>
       </c>
-      <c r="D281" s="2">
+      <c r="E281" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
         <v>44128</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B282" s="5">
+        <v>44128</v>
+      </c>
+      <c r="C282" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C282" s="2">
+      <c r="D282" s="2">
         <v>50</v>
       </c>
-      <c r="D282" s="2">
+      <c r="E282" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="3">
         <v>44129</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B283" s="5">
+        <v>44129</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C283" s="2">
+      <c r="D283" s="2">
         <v>14</v>
       </c>
-      <c r="D283" s="2">
+      <c r="E283" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
         <v>44130</v>
       </c>
-      <c r="B284" s="3" t="s">
+      <c r="B284" s="5">
+        <v>44130</v>
+      </c>
+      <c r="C284" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C284" s="2">
-        <v>43</v>
       </c>
       <c r="D284" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E284" s="2">
+        <v>43</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
         <v>44131</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="B285" s="5">
+        <v>44131</v>
+      </c>
+      <c r="C285" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C285" s="2">
-        <v>34</v>
       </c>
       <c r="D285" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E285" s="2">
+        <v>34</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
         <v>44132</v>
       </c>
-      <c r="B286" s="3" t="s">
+      <c r="B286" s="5">
+        <v>44132</v>
+      </c>
+      <c r="C286" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C286" s="2">
-        <v>60</v>
       </c>
       <c r="D286" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E286" s="2">
+        <v>60</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="3">
         <v>44133</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B287" s="5">
+        <v>44133</v>
+      </c>
+      <c r="C287" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C287" s="2">
+      <c r="D287" s="2">
         <v>56</v>
       </c>
-      <c r="D287" s="2">
+      <c r="E287" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
         <v>44134</v>
       </c>
-      <c r="B288" s="3" t="s">
+      <c r="B288" s="5">
+        <v>44134</v>
+      </c>
+      <c r="C288" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C288" s="2">
+      <c r="D288" s="2">
         <v>65</v>
       </c>
-      <c r="D288" s="2">
+      <c r="E288" s="2">
         <v>67</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
         <v>44135</v>
       </c>
-      <c r="B289" s="3" t="s">
+      <c r="B289" s="5">
+        <v>44135</v>
+      </c>
+      <c r="C289" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C289" s="2">
+      <c r="D289" s="2">
         <v>52</v>
       </c>
-      <c r="D289" s="2">
+      <c r="E289" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
         <v>44136</v>
       </c>
-      <c r="B290" s="3" t="s">
+      <c r="B290" s="5">
+        <v>44136</v>
+      </c>
+      <c r="C290" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C290" s="2">
+      <c r="D290" s="2">
         <v>36</v>
       </c>
-      <c r="D290" s="2">
+      <c r="E290" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
         <v>44137</v>
       </c>
-      <c r="B291" s="3" t="s">
+      <c r="B291" s="5">
+        <v>44137</v>
+      </c>
+      <c r="C291" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C291" s="2">
+      <c r="D291" s="2">
         <v>44</v>
       </c>
-      <c r="D291" s="2">
+      <c r="E291" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
         <v>44138</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B292" s="5">
+        <v>44138</v>
+      </c>
+      <c r="C292" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C292" s="2">
+      <c r="D292" s="2">
         <v>39</v>
       </c>
-      <c r="D292" s="2">
+      <c r="E292" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
         <v>44139</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B293" s="5">
+        <v>44139</v>
+      </c>
+      <c r="C293" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C293" s="2">
+      <c r="D293" s="2">
         <v>49</v>
       </c>
-      <c r="D293" s="2">
+      <c r="E293" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="3">
         <v>44140</v>
       </c>
-      <c r="B294" s="3" t="s">
+      <c r="B294" s="5">
+        <v>44140</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C294" s="2">
+      <c r="D294" s="2">
         <v>42</v>
       </c>
-      <c r="D294" s="2">
+      <c r="E294" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="3">
         <v>44141</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="B295" s="5">
+        <v>44141</v>
+      </c>
+      <c r="C295" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C295" s="2">
+      <c r="D295" s="2">
         <v>67</v>
       </c>
-      <c r="D295" s="2">
+      <c r="E295" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="3">
         <v>44142</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="B296" s="5">
+        <v>44142</v>
+      </c>
+      <c r="C296" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C296" s="2">
+      <c r="D296" s="2">
         <v>64</v>
       </c>
-      <c r="D296" s="2">
+      <c r="E296" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="3">
         <v>44143</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B297" s="5">
+        <v>44143</v>
+      </c>
+      <c r="C297" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C297" s="2">
+      <c r="D297" s="2">
         <v>60</v>
       </c>
-      <c r="D297" s="2">
+      <c r="E297" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="3">
         <v>44144</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="B298" s="5">
+        <v>44144</v>
+      </c>
+      <c r="C298" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C298" s="2">
+      <c r="D298" s="2">
         <v>35</v>
       </c>
-      <c r="D298" s="2">
+      <c r="E298" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="3">
         <v>44145</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="B299" s="5">
+        <v>44145</v>
+      </c>
+      <c r="C299" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C299" s="2">
+      <c r="D299" s="2">
         <v>35</v>
       </c>
-      <c r="D299" s="2">
+      <c r="E299" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="3">
         <v>44146</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B300" s="5">
+        <v>44146</v>
+      </c>
+      <c r="C300" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C300" s="2">
+      <c r="D300" s="2">
         <v>49</v>
       </c>
-      <c r="D300" s="2">
+      <c r="E300" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
         <v>44147</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B301" s="5">
+        <v>44147</v>
+      </c>
+      <c r="C301" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C301" s="2">
+      <c r="D301" s="2">
         <v>54</v>
       </c>
-      <c r="D301" s="2">
+      <c r="E301" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="3">
         <v>44148</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B302" s="5">
+        <v>44148</v>
+      </c>
+      <c r="C302" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C302" s="2">
+      <c r="D302" s="2">
         <v>12</v>
       </c>
-      <c r="D302" s="2">
+      <c r="E302" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
         <v>44149</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="B303" s="5">
+        <v>44149</v>
+      </c>
+      <c r="C303" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C303" s="2">
+      <c r="D303" s="2">
         <v>53</v>
       </c>
-      <c r="D303" s="2">
+      <c r="E303" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
         <v>44150</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B304" s="5">
+        <v>44150</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C304" s="2">
+      <c r="D304" s="2">
         <v>60</v>
       </c>
-      <c r="D304" s="2">
+      <c r="E304" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="3">
         <v>44151</v>
       </c>
-      <c r="B305" s="3" t="s">
+      <c r="B305" s="5">
+        <v>44151</v>
+      </c>
+      <c r="C305" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C305" s="2">
+      <c r="D305" s="2">
         <v>45</v>
       </c>
-      <c r="D305" s="2">
+      <c r="E305" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="3">
         <v>44152</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B306" s="5">
+        <v>44152</v>
+      </c>
+      <c r="C306" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C306" s="2">
+      <c r="D306" s="2">
         <v>55</v>
       </c>
-      <c r="D306" s="2">
+      <c r="E306" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="3">
         <v>44153</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B307" s="5">
+        <v>44153</v>
+      </c>
+      <c r="C307" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C307" s="2">
+      <c r="D307" s="2">
         <v>43</v>
       </c>
-      <c r="D307" s="2">
+      <c r="E307" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="3">
         <v>44154</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B308" s="5">
+        <v>44154</v>
+      </c>
+      <c r="C308" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C308" s="2">
+      <c r="D308" s="2">
         <v>52</v>
       </c>
-      <c r="D308" s="2">
+      <c r="E308" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
         <v>44155</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="B309" s="5">
+        <v>44155</v>
+      </c>
+      <c r="C309" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C309" s="2">
+      <c r="D309" s="2">
         <v>30</v>
       </c>
-      <c r="D309" s="2">
+      <c r="E309" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="3">
         <v>44156</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="B310" s="5">
+        <v>44156</v>
+      </c>
+      <c r="C310" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C310" s="2">
+      <c r="D310" s="2">
         <v>68</v>
       </c>
-      <c r="D310" s="2">
+      <c r="E310" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="3">
         <v>44157</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B311" s="5">
+        <v>44157</v>
+      </c>
+      <c r="C311" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C311" s="2">
+      <c r="D311" s="2">
         <v>52</v>
       </c>
-      <c r="D311" s="2">
+      <c r="E311" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="3">
         <v>44158</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="B312" s="5">
+        <v>44158</v>
+      </c>
+      <c r="C312" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C312" s="2">
+      <c r="D312" s="2">
         <v>50</v>
       </c>
-      <c r="D312" s="2">
+      <c r="E312" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="3">
         <v>44159</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="B313" s="5">
+        <v>44159</v>
+      </c>
+      <c r="C313" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C313" s="2">
+      <c r="D313" s="2">
         <v>56</v>
       </c>
-      <c r="D313" s="2">
+      <c r="E313" s="2">
         <v>61</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="3">
         <v>44160</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="B314" s="5">
+        <v>44160</v>
+      </c>
+      <c r="C314" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C314" s="2">
+      <c r="D314" s="2">
         <v>49</v>
       </c>
-      <c r="D314" s="2">
+      <c r="E314" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="3">
         <v>44161</v>
       </c>
-      <c r="B315" s="3" t="s">
+      <c r="B315" s="5">
+        <v>44161</v>
+      </c>
+      <c r="C315" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C315" s="2">
+      <c r="D315" s="2">
         <v>73</v>
       </c>
-      <c r="D315" s="2">
+      <c r="E315" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="3">
         <v>44162</v>
       </c>
-      <c r="B316" s="3" t="s">
+      <c r="B316" s="5">
+        <v>44162</v>
+      </c>
+      <c r="C316" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C316" s="2">
+      <c r="D316" s="2">
         <v>51</v>
       </c>
-      <c r="D316" s="2">
+      <c r="E316" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="3">
         <v>44163</v>
       </c>
-      <c r="B317" s="3" t="s">
+      <c r="B317" s="5">
+        <v>44163</v>
+      </c>
+      <c r="C317" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C317" s="2">
+      <c r="D317" s="2">
         <v>63</v>
       </c>
-      <c r="D317" s="2">
+      <c r="E317" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="3">
         <v>44164</v>
       </c>
-      <c r="B318" s="3" t="s">
+      <c r="B318" s="5">
+        <v>44164</v>
+      </c>
+      <c r="C318" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C318" s="2">
+      <c r="D318" s="2">
         <v>54</v>
       </c>
-      <c r="D318" s="2">
+      <c r="E318" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="3">
         <v>44165</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B319" s="5">
+        <v>44165</v>
+      </c>
+      <c r="C319" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C319" s="2">
+      <c r="D319" s="2">
         <v>52</v>
       </c>
-      <c r="D319" s="2">
+      <c r="E319" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="3">
         <v>44166</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="B320" s="5">
+        <v>44166</v>
+      </c>
+      <c r="C320" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C320" s="2">
+      <c r="D320" s="2">
         <v>46</v>
       </c>
-      <c r="D320" s="2">
+      <c r="E320" s="2">
         <v>53</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="3">
         <v>44167</v>
       </c>
-      <c r="B321" s="3" t="s">
+      <c r="B321" s="5">
+        <v>44167</v>
+      </c>
+      <c r="C321" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C321" s="2">
+      <c r="D321" s="2">
         <v>63</v>
       </c>
-      <c r="D321" s="2">
+      <c r="E321" s="2">
         <v>59</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="3">
         <v>44168</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B322" s="5">
+        <v>44168</v>
+      </c>
+      <c r="C322" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C322" s="2">
+      <c r="D322" s="2">
         <v>61</v>
       </c>
-      <c r="D322" s="2">
+      <c r="E322" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="3">
         <v>44169</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B323" s="5">
+        <v>44169</v>
+      </c>
+      <c r="C323" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C323" s="2">
+      <c r="D323" s="2">
         <v>65</v>
       </c>
-      <c r="D323" s="2">
+      <c r="E323" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="3">
         <v>44170</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B324" s="5">
+        <v>44170</v>
+      </c>
+      <c r="C324" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C324" s="2">
+      <c r="D324" s="2">
         <v>27</v>
       </c>
-      <c r="D324" s="2">
+      <c r="E324" s="2">
         <v>63</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="3">
         <v>44171</v>
       </c>
-      <c r="B325" s="3" t="s">
+      <c r="B325" s="5">
+        <v>44171</v>
+      </c>
+      <c r="C325" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C325" s="2">
+      <c r="D325" s="2">
         <v>44</v>
       </c>
-      <c r="D325" s="2">
+      <c r="E325" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="3">
         <v>44172</v>
       </c>
-      <c r="B326" s="3" t="s">
+      <c r="B326" s="5">
+        <v>44172</v>
+      </c>
+      <c r="C326" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C326" s="2">
+      <c r="D326" s="2">
         <v>39</v>
       </c>
-      <c r="D326" s="2">
+      <c r="E326" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="3">
         <v>44173</v>
       </c>
-      <c r="B327" s="3" t="s">
+      <c r="B327" s="5">
+        <v>44173</v>
+      </c>
+      <c r="C327" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C327" s="2">
+      <c r="D327" s="2">
         <v>72</v>
       </c>
-      <c r="D327" s="2">
+      <c r="E327" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="3">
         <v>44174</v>
       </c>
-      <c r="B328" s="3" t="s">
+      <c r="B328" s="5">
+        <v>44174</v>
+      </c>
+      <c r="C328" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C328" s="2">
+      <c r="D328" s="2">
         <v>66</v>
       </c>
-      <c r="D328" s="2">
+      <c r="E328" s="2">
         <v>57</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="3">
         <v>44175</v>
       </c>
-      <c r="B329" s="3" t="s">
+      <c r="B329" s="5">
+        <v>44175</v>
+      </c>
+      <c r="C329" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C329" s="2">
+      <c r="D329" s="2">
         <v>36</v>
       </c>
-      <c r="D329" s="2">
+      <c r="E329" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="3">
         <v>44176</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B330" s="5">
+        <v>44176</v>
+      </c>
+      <c r="C330" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C330" s="2">
+      <c r="D330" s="2">
         <v>42</v>
       </c>
-      <c r="D330" s="2">
+      <c r="E330" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="3">
         <v>44177</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B331" s="5">
+        <v>44177</v>
+      </c>
+      <c r="C331" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C331" s="2">
-        <v>6</v>
       </c>
       <c r="D331" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E331" s="2">
+        <v>6</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="3">
         <v>44178</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="B332" s="5">
+        <v>44178</v>
+      </c>
+      <c r="C332" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C332" s="2">
+      <c r="D332" s="2">
         <v>5</v>
       </c>
-      <c r="D332" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E332" s="2">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="3">
         <v>44179</v>
       </c>
-      <c r="B333" s="3" t="s">
+      <c r="B333" s="5">
+        <v>44179</v>
+      </c>
+      <c r="C333" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C333" s="2">
+      <c r="D333" s="2">
         <v>36</v>
       </c>
-      <c r="D333" s="2">
+      <c r="E333" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="3">
         <v>44180</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B334" s="5">
+        <v>44180</v>
+      </c>
+      <c r="C334" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C334" s="2">
+      <c r="D334" s="2">
         <v>50</v>
       </c>
-      <c r="D334" s="2">
+      <c r="E334" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="3">
         <v>44181</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="B335" s="5">
+        <v>44181</v>
+      </c>
+      <c r="C335" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C335" s="2">
+      <c r="D335" s="2">
         <v>48</v>
       </c>
-      <c r="D335" s="2">
+      <c r="E335" s="2">
         <v>53</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="3">
         <v>44182</v>
       </c>
-      <c r="B336" s="3" t="s">
+      <c r="B336" s="5">
+        <v>44182</v>
+      </c>
+      <c r="C336" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C336" s="2">
+      <c r="D336" s="2">
         <v>65</v>
       </c>
-      <c r="D336" s="2">
+      <c r="E336" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="3">
         <v>44183</v>
       </c>
-      <c r="B337" s="3" t="s">
+      <c r="B337" s="5">
+        <v>44183</v>
+      </c>
+      <c r="C337" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C337" s="2">
+      <c r="D337" s="2">
         <v>43</v>
       </c>
-      <c r="D337" s="2">
+      <c r="E337" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="3">
         <v>44184</v>
       </c>
-      <c r="B338" s="3" t="s">
+      <c r="B338" s="5">
+        <v>44184</v>
+      </c>
+      <c r="C338" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C338" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D338" s="2">
+      <c r="D338" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E338" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="3">
         <v>44185</v>
       </c>
-      <c r="B339" s="3" t="s">
+      <c r="B339" s="5">
+        <v>44185</v>
+      </c>
+      <c r="C339" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C339" s="2">
+      <c r="D339" s="2">
         <v>4</v>
       </c>
-      <c r="D339" s="2">
+      <c r="E339" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="3">
         <v>44186</v>
       </c>
-      <c r="B340" s="3" t="s">
+      <c r="B340" s="5">
+        <v>44186</v>
+      </c>
+      <c r="C340" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C340" s="2">
+      <c r="D340" s="2">
         <v>40</v>
       </c>
-      <c r="D340" s="2">
+      <c r="E340" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="3">
         <v>44187</v>
       </c>
-      <c r="B341" s="3" t="s">
+      <c r="B341" s="5">
+        <v>44187</v>
+      </c>
+      <c r="C341" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C341" s="2">
+      <c r="D341" s="2">
         <v>61</v>
       </c>
-      <c r="D341" s="2">
+      <c r="E341" s="2">
         <v>56</v>
       </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{6A41A7CA-1092-AE41-A4BD-D91DF6C0ECE8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F341">
+      <sortCondition ref="A1:A341"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
